--- a/Team-Data/2013-14/2-7-2013-14.xlsx
+++ b/Team-Data/2013-14/2-7-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -753,10 +820,10 @@
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -774,22 +841,22 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>4</v>
@@ -807,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.353</v>
+        <v>0.34</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.437</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.329</v>
+        <v>0.327</v>
       </c>
       <c r="O3" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P3" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S3" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V3" t="n">
         <v>15.6</v>
@@ -914,16 +981,16 @@
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.6</v>
+        <v>-3.9</v>
       </c>
       <c r="AD3" t="n">
         <v>4</v>
@@ -932,10 +999,10 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -947,13 +1014,13 @@
         <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -971,16 +1038,16 @@
         <v>14</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -992,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -1030,34 +1097,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.458</v>
+        <v>0.468</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J4" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M4" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="N4" t="n">
         <v>0.37</v>
@@ -1069,52 +1136,52 @@
         <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R4" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T4" t="n">
         <v>39.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>14</v>
@@ -1141,28 +1208,28 @@
         <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>12</v>
@@ -1174,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1299,10 +1366,10 @@
         <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
@@ -1320,16 +1387,16 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>28</v>
@@ -1344,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="AV5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW5" t="n">
         <v>29</v>
@@ -1353,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1362,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1511,10 +1578,10 @@
         <v>13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>13</v>
@@ -1526,13 +1593,13 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>0.34</v>
+        <v>0.327</v>
       </c>
       <c r="H7" t="n">
         <v>48.8</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N7" t="n">
         <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="P7" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.745</v>
+        <v>0.741</v>
       </c>
       <c r="R7" t="n">
         <v>12.6</v>
@@ -1624,13 +1691,13 @@
         <v>31.3</v>
       </c>
       <c r="T7" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U7" t="n">
         <v>19.9</v>
       </c>
       <c r="V7" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
         <v>7.4</v>
@@ -1642,52 +1709,52 @@
         <v>6.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1708,22 +1775,22 @@
         <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY7" t="n">
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.588</v>
+        <v>0.58</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1785,10 +1852,10 @@
         <v>8.4</v>
       </c>
       <c r="M8" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.377</v>
+        <v>0.374</v>
       </c>
       <c r="O8" t="n">
         <v>17.1</v>
@@ -1803,19 +1870,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T8" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="U8" t="n">
         <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X8" t="n">
         <v>4.1</v>
@@ -1830,16 +1897,16 @@
         <v>19.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
         <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1857,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1887,13 +1954,13 @@
         <v>28</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
         <v>27</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.511</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J9" t="n">
-        <v>84.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K9" t="n">
         <v>0.452</v>
       </c>
       <c r="L9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O9" t="n">
         <v>19</v>
@@ -1985,25 +2052,25 @@
         <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.7</v>
       </c>
       <c r="U9" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="V9" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
         <v>22.8</v>
@@ -2012,19 +2079,19 @@
         <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.7</v>
+        <v>104</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -2033,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>7</v>
@@ -2060,37 +2127,37 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW9" t="n">
         <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
         <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>0.408</v>
+        <v>0.396</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J10" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.31</v>
+        <v>0.306</v>
       </c>
       <c r="O10" t="n">
         <v>17.3</v>
       </c>
       <c r="P10" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q10" t="n">
         <v>0.664</v>
@@ -2167,40 +2234,40 @@
         <v>14.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>45.2</v>
+        <v>45</v>
       </c>
       <c r="U10" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V10" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W10" t="n">
         <v>8.9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y10" t="n">
         <v>4.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA10" t="n">
         <v>20.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.6</v>
+        <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,22 +2279,22 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>7</v>
@@ -2254,28 +2321,28 @@
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2406,13 +2473,13 @@
         <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
         <v>25</v>
@@ -2424,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,13 +2500,13 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>29</v>
       </c>
       <c r="AW11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
         <v>10</v>
@@ -2451,7 +2518,7 @@
         <v>24</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2573,13 +2640,13 @@
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2624,7 +2691,7 @@
         <v>20</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0.796</v>
+        <v>0.792</v>
       </c>
       <c r="H13" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.454</v>
       </c>
       <c r="L13" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N13" t="n">
         <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R13" t="n">
         <v>10.3</v>
@@ -2719,16 +2786,16 @@
         <v>45.5</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W13" t="n">
         <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y13" t="n">
         <v>4.5</v>
@@ -2737,16 +2804,16 @@
         <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>8.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>20</v>
@@ -2770,19 +2837,19 @@
         <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
@@ -2794,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2809,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.66</v>
+        <v>0.654</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,13 +2935,13 @@
         <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K14" t="n">
         <v>0.469</v>
       </c>
       <c r="L14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M14" t="n">
         <v>23.7</v>
@@ -2883,13 +2950,13 @@
         <v>0.344</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="P14" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="R14" t="n">
         <v>10.4</v>
@@ -2898,7 +2965,7 @@
         <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U14" t="n">
         <v>23.9</v>
@@ -2907,43 +2974,43 @@
         <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
         <v>4.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.4</v>
+        <v>106.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -2976,7 +3043,7 @@
         <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2994,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
         <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.36</v>
+        <v>0.347</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R15" t="n">
         <v>9.6</v>
@@ -3083,34 +3150,34 @@
         <v>42.4</v>
       </c>
       <c r="U15" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.9</v>
+        <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3131,16 +3198,16 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
@@ -3161,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
         <v>18</v>
@@ -3173,16 +3240,16 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3304,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
@@ -3349,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3501,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN17" t="n">
         <v>9</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3680,7 +3747,7 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
         <v>16</v>
@@ -3695,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>13</v>
@@ -3722,10 +3789,10 @@
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA18" t="n">
         <v>18</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="J19" t="n">
-        <v>87.8</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M19" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O19" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="P19" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R19" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S19" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T19" t="n">
         <v>45.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="V19" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W19" t="n">
         <v>8.800000000000001</v>
@@ -3823,43 +3890,43 @@
         <v>3.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.5</v>
+        <v>105.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK19" t="n">
         <v>25</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>16</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3877,19 +3944,19 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.449</v>
+        <v>0.438</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,37 +4027,37 @@
         <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M20" t="n">
         <v>15.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.382</v>
+        <v>0.379</v>
       </c>
       <c r="O20" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R20" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="S20" t="n">
         <v>30.5</v>
       </c>
       <c r="T20" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
@@ -4002,40 +4069,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y20" t="n">
         <v>6.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -4059,16 +4126,16 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
         <v>5</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
@@ -4089,10 +4156,10 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -4124,70 +4191,70 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" t="n">
         <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.388</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J21" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L21" t="n">
         <v>8.9</v>
       </c>
       <c r="M21" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P21" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="W21" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z21" t="n">
         <v>22.3</v>
@@ -4196,13 +4263,13 @@
         <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.5</v>
+        <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4223,7 +4290,7 @@
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4238,7 +4305,7 @@
         <v>30</v>
       </c>
       <c r="AP21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>20</v>
@@ -4247,7 +4314,7 @@
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4256,19 +4323,19 @@
         <v>25</v>
       </c>
       <c r="AV21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
         <v>22</v>
@@ -4277,7 +4344,7 @@
         <v>22</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="n">
         <v>40</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.769</v>
+        <v>0.784</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4324,37 +4391,37 @@
         <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M22" t="n">
         <v>20.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O22" t="n">
         <v>19.5</v>
       </c>
       <c r="P22" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="R22" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S22" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="T22" t="n">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="U22" t="n">
         <v>21.6</v>
@@ -4366,7 +4433,7 @@
         <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
         <v>3.8</v>
@@ -4375,13 +4442,13 @@
         <v>21.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
         <v>2</v>
@@ -4402,13 +4469,13 @@
         <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM22" t="n">
         <v>18</v>
@@ -4420,13 +4487,13 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4453,7 +4520,7 @@
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -4488,88 +4555,88 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
         <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.288</v>
+        <v>0.275</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K23" t="n">
         <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O23" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P23" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R23" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>5.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA23" t="n">
         <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF23" t="n">
         <v>29</v>
@@ -4587,22 +4654,22 @@
         <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>20</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
         <v>22</v>
       </c>
       <c r="AP23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ23" t="n">
         <v>14</v>
@@ -4611,7 +4678,7 @@
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.294</v>
+        <v>0.3</v>
       </c>
       <c r="H24" t="n">
         <v>48.7</v>
@@ -4694,58 +4761,58 @@
         <v>0.44</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M24" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.321</v>
+        <v>0.316</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P24" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.712</v>
+        <v>0.715</v>
       </c>
       <c r="R24" t="n">
         <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T24" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U24" t="n">
         <v>22.5</v>
       </c>
       <c r="V24" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="W24" t="n">
         <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
         <v>4</v>
@@ -4766,25 +4833,25 @@
         <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4793,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT24" t="n">
         <v>9</v>
@@ -4814,13 +4881,13 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>3.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4942,7 +5009,7 @@
         <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>8</v>
@@ -4954,7 +5021,7 @@
         <v>9</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
@@ -4963,7 +5030,7 @@
         <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
         <v>11</v>
@@ -4984,7 +5051,7 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
@@ -4996,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -5034,34 +5101,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="n">
         <v>35</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>0.714</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J26" t="n">
-        <v>88.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
         <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N26" t="n">
         <v>0.382</v>
@@ -5070,7 +5137,7 @@
         <v>18.8</v>
       </c>
       <c r="P26" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="n">
         <v>0.82</v>
@@ -5091,46 +5158,46 @@
         <v>13.7</v>
       </c>
       <c r="W26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA26" t="n">
         <v>20.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -5142,10 +5209,10 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP26" t="n">
         <v>17</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>5</v>
@@ -5166,7 +5233,7 @@
         <v>3</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5175,7 +5242,7 @@
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="n">
-        <v>0.34</v>
+        <v>0.347</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J27" t="n">
         <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L27" t="n">
         <v>6.7</v>
       </c>
       <c r="M27" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N27" t="n">
         <v>0.344</v>
       </c>
       <c r="O27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P27" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.775</v>
+        <v>0.772</v>
       </c>
       <c r="R27" t="n">
         <v>12</v>
@@ -5264,16 +5331,16 @@
         <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -5282,46 +5349,46 @@
         <v>5.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA27" t="n">
         <v>22.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5333,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>9</v>
@@ -5351,10 +5418,10 @@
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
         <v>25</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5512,19 +5579,19 @@
         <v>28</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5539,7 +5606,7 @@
         <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5548,7 +5615,7 @@
         <v>25</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" t="n">
         <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" t="n">
-        <v>0.52</v>
+        <v>0.531</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5601,7 +5668,7 @@
         <v>82.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L29" t="n">
         <v>8.300000000000001</v>
@@ -5610,19 +5677,19 @@
         <v>22.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P29" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R29" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S29" t="n">
         <v>31.4</v>
@@ -5634,7 +5701,7 @@
         <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
@@ -5646,28 +5713,28 @@
         <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
@@ -5676,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
@@ -5691,16 +5758,16 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>7</v>
       </c>
-      <c r="AP29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ29" t="n">
+      <c r="AR29" t="n">
         <v>8</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>6</v>
       </c>
       <c r="AS29" t="n">
         <v>20</v>
@@ -5709,7 +5776,7 @@
         <v>13</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5721,19 +5788,19 @@
         <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>6</v>
       </c>
       <c r="BB29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L30" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M30" t="n">
-        <v>19</v>
+        <v>18.6</v>
       </c>
       <c r="N30" t="n">
         <v>0.352</v>
       </c>
       <c r="O30" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.75</v>
+        <v>0.754</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S30" t="n">
         <v>30.5</v>
       </c>
       <c r="T30" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.8</v>
@@ -5825,7 +5892,7 @@
         <v>4.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
         <v>21</v>
@@ -5834,25 +5901,25 @@
         <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.8</v>
+        <v>-6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5876,16 +5943,16 @@
         <v>23</v>
       </c>
       <c r="AP30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS30" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5900,19 +5967,19 @@
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" t="n">
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J31" t="n">
         <v>84.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L31" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M31" t="n">
         <v>20.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.378</v>
+        <v>0.374</v>
       </c>
       <c r="O31" t="n">
         <v>15.7</v>
@@ -5983,25 +6050,25 @@
         <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R31" t="n">
         <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T31" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U31" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W31" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
@@ -6010,19 +6077,19 @@
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
         <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>-0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6052,7 +6119,7 @@
         <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6070,13 +6137,13 @@
         <v>15</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW31" t="n">
         <v>7</v>
@@ -6088,13 +6155,13 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
         <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-7-2013-14</t>
+          <t>2014-02-07</t>
         </is>
       </c>
     </row>
